--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854307.543838695</v>
+        <v>1798530.02169609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456280.6158568746</v>
+        <v>378361.3354307516</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6532702.148731741</v>
+        <v>6532702.14873174</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>232.8330857361503</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>200.160833108852</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>76.95551772684504</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>201.0773824251542</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>211.3784898606458</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>87.86737129411912</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>20.28983541429296</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>43.09198093152767</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>208.6957123392361</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>26.96085138634647</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>36.88464454569336</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>263.3439477611045</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>80.68344852095568</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>6.270019292236308</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>98.28115059739903</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G14" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="H14" t="n">
-        <v>38.61989501721352</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -1657,13 +1657,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>76.26565409945277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>81.12752273267826</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1748,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>47.10948745037824</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>281.3609477211289</v>
+        <v>322.4091433743079</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>39.78373978801282</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -1982,13 +1982,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>72.99342393229846</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>287.0328539434448</v>
       </c>
       <c r="H20" t="n">
-        <v>123.1948121952266</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>114.1942888468238</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>185.4862407958537</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>70.62611983656822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>37.38024056300767</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>69.82671827978641</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>8.644241788329454</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="X25" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>160.6718981164722</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>165.2508529570911</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>85.90079975456013</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>127.5856448110887</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>343.5334572229341</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>147.3647965035357</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>103.2218554137299</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>180.4616923463819</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>32.57639700375392</v>
       </c>
       <c r="I31" t="n">
-        <v>39.19479062707046</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>51.925958086938</v>
       </c>
       <c r="H32" t="n">
-        <v>192.6254374377234</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468241</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>134.5658975014684</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.9189633854834</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969024</v>
+        <v>228.6655858138621</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>158.618622242861</v>
       </c>
       <c r="C36" t="n">
-        <v>128.4562226808346</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>98.80659320001097</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>306.1312359783977</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -3638,16 +3638,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>147.3962661676074</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>125.6515102575163</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>33.64439241526563</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>66.97401714472416</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>234.1536680083903</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>81.1275227326783</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>127.3343733834988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>106.0890042129127</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>98.68313739545479</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G44" t="n">
         <v>405.7415719969024</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>45.20549866845925</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>380.3849069482933</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>96.19094126559305</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>188.9116684786339</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>106.0890042129127</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.19479062707057</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>248.9911026845557</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>233.5337920632072</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>233.5337920632072</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>622.424473941237</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>447.97144466011</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>370.2385984713777</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
         <v>223.7040404982626</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>431.5555407037955</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>431.5555407037955</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.7454097505996</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>281.7454097505996</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.7454097505996</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.3006591534979</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C6" t="n">
-        <v>305.3006591534979</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>943.5623722638757</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>741.3757776226416</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>513.1521593590307</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>513.1521593590307</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>513.1521593590307</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>305.3006591534979</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>305.3006591534979</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.8046290289238</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X8" t="n">
-        <v>753.253405673024</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.8046290289238</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>619.4388494194218</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C9" t="n">
-        <v>444.9858201382948</v>
+        <v>203.827050448935</v>
       </c>
       <c r="D9" t="n">
-        <v>296.0514104770435</v>
+        <v>203.827050448935</v>
       </c>
       <c r="E9" t="n">
-        <v>136.813955471588</v>
+        <v>203.827050448935</v>
       </c>
       <c r="F9" t="n">
-        <v>136.813955471588</v>
+        <v>57.29249247582001</v>
       </c>
       <c r="G9" t="n">
-        <v>136.813955471588</v>
+        <v>57.29249247582001</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>57.29249247582001</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4925,10 +4925,10 @@
         <v>619.4388494194218</v>
       </c>
       <c r="X9" t="n">
-        <v>619.4388494194218</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y9" t="n">
-        <v>619.4388494194218</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1210.404967794588</v>
+        <v>667.4258303376432</v>
       </c>
       <c r="C11" t="n">
-        <v>1210.404967794588</v>
+        <v>298.4633133972315</v>
       </c>
       <c r="D11" t="n">
-        <v>852.1392691878377</v>
+        <v>298.4633133972315</v>
       </c>
       <c r="E11" t="n">
-        <v>852.1392691878377</v>
+        <v>298.4633133972315</v>
       </c>
       <c r="F11" t="n">
-        <v>442.2992974737949</v>
+        <v>298.4633133972315</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>298.4633133972315</v>
       </c>
       <c r="H11" t="n">
         <v>32.45932575975218</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1541.467855138159</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U11" t="n">
-        <v>1541.467855138159</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="V11" t="n">
-        <v>1210.404967794588</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="W11" t="n">
-        <v>1210.404967794588</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="X11" t="n">
-        <v>1210.404967794588</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="Y11" t="n">
-        <v>1210.404967794588</v>
+        <v>667.4258303376432</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>704.7131542729894</v>
+        <v>454.8582495513002</v>
       </c>
       <c r="C12" t="n">
-        <v>530.2601249918624</v>
+        <v>454.8582495513002</v>
       </c>
       <c r="D12" t="n">
-        <v>381.3257153306112</v>
+        <v>454.8582495513002</v>
       </c>
       <c r="E12" t="n">
-        <v>222.0882603251556</v>
+        <v>295.6207945458447</v>
       </c>
       <c r="F12" t="n">
-        <v>222.0882603251556</v>
+        <v>149.0862365727296</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>149.0862365727296</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>38.7926785801929</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
@@ -5123,49 +5123,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>466.9286114492849</v>
       </c>
       <c r="M12" t="n">
-        <v>730.284968422706</v>
+        <v>866.3467480535478</v>
       </c>
       <c r="N12" t="n">
-        <v>1131.969124699639</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V12" t="n">
-        <v>1387.814179755866</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W12" t="n">
-        <v>1288.540290263544</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X12" t="n">
-        <v>1080.688790058011</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="Y12" t="n">
-        <v>872.9284912930575</v>
+        <v>623.0735865713682</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="G13" t="n">
         <v>32.45932575975218</v>
@@ -5223,28 +5223,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>670.9653222493339</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C14" t="n">
-        <v>670.9653222493339</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="D14" t="n">
-        <v>670.9653222493339</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E14" t="n">
-        <v>670.9653222493339</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F14" t="n">
-        <v>670.9653222493339</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="G14" t="n">
-        <v>261.125350535291</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H14" t="n">
         <v>222.1153555684087</v>
@@ -5278,16 +5278,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011321</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5305,25 +5305,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T14" t="n">
-        <v>1311.402045381202</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U14" t="n">
-        <v>1057.565162313456</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="V14" t="n">
-        <v>1057.565162313456</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="W14" t="n">
-        <v>1057.565162313456</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="X14" t="n">
-        <v>1057.565162313456</v>
+        <v>1431.934630972306</v>
       </c>
       <c r="Y14" t="n">
-        <v>1057.565162313456</v>
+        <v>1041.795298996494</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>286.2477316137459</v>
+        <v>288.8593477001502</v>
       </c>
       <c r="C15" t="n">
-        <v>111.7947023326189</v>
+        <v>114.4063184190232</v>
       </c>
       <c r="D15" t="n">
-        <v>111.7947023326189</v>
+        <v>114.4063184190232</v>
       </c>
       <c r="E15" t="n">
-        <v>111.7947023326189</v>
+        <v>114.4063184190232</v>
       </c>
       <c r="F15" t="n">
-        <v>111.7947023326189</v>
+        <v>114.4063184190232</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
@@ -5360,19 +5360,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>157.8168858175896</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>387.7799916859387</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>787.1981282902018</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N15" t="n">
-        <v>1188.882284567135</v>
+        <v>1074.129872983297</v>
       </c>
       <c r="O15" t="n">
-        <v>1440.322810374259</v>
+        <v>1397.143380157855</v>
       </c>
       <c r="P15" t="n">
         <v>1622.96628798761</v>
@@ -5381,28 +5381,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894786</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577358</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="W15" t="n">
-        <v>709.8087082577358</v>
+        <v>704.4711466706369</v>
       </c>
       <c r="X15" t="n">
-        <v>662.2233673987679</v>
+        <v>496.6196464651041</v>
       </c>
       <c r="Y15" t="n">
-        <v>454.463068633814</v>
+        <v>288.8593477001502</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>179.5981367727104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
         <v>32.45932575975219</v>
@@ -5439,7 +5439,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5472,16 +5472,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>726.5022749698848</v>
+        <v>716.3908257546925</v>
       </c>
       <c r="C17" t="n">
-        <v>442.299297473795</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D17" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E17" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F17" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G17" t="n">
         <v>32.45932575975219</v>
@@ -5524,43 +5524,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T17" t="n">
-        <v>1311.402045381201</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U17" t="n">
-        <v>1057.565162313455</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V17" t="n">
-        <v>726.5022749698848</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="W17" t="n">
-        <v>726.5022749698848</v>
+        <v>716.3908257546925</v>
       </c>
       <c r="X17" t="n">
-        <v>726.5022749698848</v>
+        <v>716.3908257546925</v>
       </c>
       <c r="Y17" t="n">
-        <v>726.5022749698848</v>
+        <v>716.3908257546925</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>455.6182862742457</v>
+        <v>247.0979507863467</v>
       </c>
       <c r="C18" t="n">
-        <v>281.1652569931187</v>
+        <v>72.64492150521968</v>
       </c>
       <c r="D18" t="n">
-        <v>281.1652569931187</v>
+        <v>72.64492150521968</v>
       </c>
       <c r="E18" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975219</v>
@@ -5597,49 +5597,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809358</v>
+        <v>228.9816661413135</v>
       </c>
       <c r="L18" t="n">
-        <v>534.697260562599</v>
+        <v>526.7134211229767</v>
       </c>
       <c r="M18" t="n">
-        <v>869.8026208059056</v>
+        <v>847.0487406526785</v>
       </c>
       <c r="N18" t="n">
-        <v>1271.486777082839</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993835</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V18" t="n">
-        <v>871.2300852447324</v>
+        <v>877.3109432995702</v>
       </c>
       <c r="W18" t="n">
-        <v>871.2300852447324</v>
+        <v>623.0735865713687</v>
       </c>
       <c r="X18" t="n">
-        <v>663.3785850391996</v>
+        <v>623.0735865713687</v>
       </c>
       <c r="Y18" t="n">
-        <v>455.6182862742457</v>
+        <v>415.3132878064147</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>515.1642286041053</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="C20" t="n">
-        <v>515.1642286041053</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="D20" t="n">
-        <v>156.8985299973548</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="E20" t="n">
-        <v>156.8985299973548</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="F20" t="n">
-        <v>156.8985299973548</v>
+        <v>322.3915014602014</v>
       </c>
       <c r="G20" t="n">
-        <v>156.8985299973548</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975219</v>
@@ -5752,16 +5752,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V20" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W20" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X20" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y20" t="n">
-        <v>901.7640686682271</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>322.2601215528225</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C21" t="n">
-        <v>147.8070922716954</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D21" t="n">
-        <v>147.8070922716954</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E21" t="n">
-        <v>147.8070922716954</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F21" t="n">
-        <v>147.8070922716954</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975219</v>
@@ -5834,22 +5834,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>229.8162298592945</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L21" t="n">
-        <v>527.5479848409577</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M21" t="n">
-        <v>926.9661214452207</v>
+        <v>777.654182139349</v>
       </c>
       <c r="N21" t="n">
-        <v>1271.486777082839</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5861,22 +5861,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1455.464052945775</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1227.261385483253</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V21" t="n">
-        <v>992.1092772515108</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W21" t="n">
-        <v>737.8719205233092</v>
+        <v>536.9689116288025</v>
       </c>
       <c r="X21" t="n">
-        <v>530.0204203177764</v>
+        <v>349.6090724410715</v>
       </c>
       <c r="Y21" t="n">
-        <v>322.2601215528225</v>
+        <v>349.6090724410715</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F22" t="n">
         <v>32.45932575975219</v>
@@ -5943,19 +5943,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>472.7613576865965</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="C23" t="n">
-        <v>103.7988407461847</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="D23" t="n">
-        <v>103.7988407461847</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>816.8655159371569</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975219</v>
@@ -6016,25 +6016,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W23" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X23" t="n">
-        <v>1249.50052972653</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="Y23" t="n">
-        <v>859.3611977507182</v>
+        <v>1202.653768535401</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>503.3143282533119</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C24" t="n">
-        <v>328.8612989721848</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D24" t="n">
-        <v>328.8612989721848</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E24" t="n">
-        <v>328.8612989721848</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>182.3267409990698</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>182.3267409990698</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809358</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L24" t="n">
-        <v>534.697260562599</v>
+        <v>390.4671034090999</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668621</v>
+        <v>789.8852400133629</v>
       </c>
       <c r="N24" t="n">
-        <v>1331.087048673496</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O24" t="n">
-        <v>1331.087048673496</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1614.23473062566</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1413.331721731154</v>
       </c>
       <c r="U24" t="n">
-        <v>1173.163483952</v>
+        <v>1185.129054268632</v>
       </c>
       <c r="V24" t="n">
-        <v>1173.163483952</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="W24" t="n">
-        <v>918.9261272237986</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X24" t="n">
-        <v>711.0746270182658</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y24" t="n">
-        <v>503.3143282533119</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.549117950649</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>585.1676318500076</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="C26" t="n">
-        <v>585.1676318500076</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="D26" t="n">
-        <v>585.1676318500076</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E26" t="n">
-        <v>199.3793792517634</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F26" t="n">
-        <v>199.3793792517634</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975219</v>
@@ -6226,13 +6226,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K26" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M26" t="n">
         <v>838.8947028941458</v>
@@ -6241,37 +6241,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1311.402045381202</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U26" t="n">
-        <v>1311.402045381202</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V26" t="n">
-        <v>1311.402045381202</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W26" t="n">
-        <v>958.6333901110875</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X26" t="n">
-        <v>585.1676318500076</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y26" t="n">
-        <v>585.1676318500076</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>661.618777680701</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C27" t="n">
-        <v>487.165748399574</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D27" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E27" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
         <v>32.45932575975219</v>
@@ -6308,49 +6308,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L27" t="n">
-        <v>469.5499204836613</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M27" t="n">
-        <v>789.885240013363</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.569396290296</v>
+        <v>1052.635966853259</v>
       </c>
       <c r="O27" t="n">
-        <v>1440.322810374259</v>
+        <v>1331.087048673496</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1494.09189928954</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1293.188890395033</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1064.986222932512</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V27" t="n">
-        <v>829.8341147007691</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="W27" t="n">
-        <v>829.8341147007691</v>
+        <v>683.774018992056</v>
       </c>
       <c r="X27" t="n">
-        <v>829.8341147007691</v>
+        <v>475.9225187865231</v>
       </c>
       <c r="Y27" t="n">
-        <v>829.8341147007691</v>
+        <v>268.1622200215692</v>
       </c>
     </row>
     <row r="28">
@@ -6414,16 +6414,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
         <v>32.45932575975219</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>379.4628179041301</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="C29" t="n">
-        <v>379.4628179041301</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="D29" t="n">
-        <v>379.4628179041301</v>
+        <v>927.9610269881953</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975219</v>
+        <v>927.9610269881953</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975219</v>
+        <v>927.9610269881953</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975219</v>
+        <v>518.1210552741525</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975219</v>
+        <v>181.3126555613034</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
         <v>838.8947028941458</v>
@@ -6484,7 +6484,7 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
         <v>1508.970645214178</v>
@@ -6493,22 +6493,22 @@
         <v>1508.970645214178</v>
       </c>
       <c r="T29" t="n">
-        <v>1508.970645214178</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="U29" t="n">
-        <v>1508.970645214178</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="V29" t="n">
-        <v>1508.970645214178</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="W29" t="n">
-        <v>1156.201989944064</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="X29" t="n">
-        <v>1156.201989944064</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="Y29" t="n">
-        <v>766.0626579682519</v>
+        <v>1286.226725594946</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>549.7496870371103</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>375.2966577559833</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D30" t="n">
-        <v>375.2966577559833</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E30" t="n">
-        <v>216.0592027505278</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809358</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L30" t="n">
-        <v>466.9286114492849</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M30" t="n">
-        <v>847.0487406526782</v>
+        <v>718.0539105486924</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.569396290296</v>
+        <v>1062.57456618631</v>
       </c>
       <c r="O30" t="n">
-        <v>1440.322810374259</v>
+        <v>1311.327980270273</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.966287987609</v>
+        <v>1273.179515222157</v>
       </c>
       <c r="U30" t="n">
-        <v>1622.966287987609</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="V30" t="n">
-        <v>1387.814179755867</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W30" t="n">
-        <v>1133.576823027665</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X30" t="n">
-        <v>925.7253228221323</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y30" t="n">
-        <v>717.9650240571784</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F31" t="n">
-        <v>72.05002336285366</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="G31" t="n">
-        <v>72.05002336285366</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="H31" t="n">
-        <v>72.05002336285366</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I31" t="n">
         <v>32.45932575975219</v>
@@ -6654,19 +6654,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1236.366447923488</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="C32" t="n">
-        <v>1236.366447923488</v>
+        <v>880.5380127861181</v>
       </c>
       <c r="D32" t="n">
-        <v>1236.366447923488</v>
+        <v>880.5380127861181</v>
       </c>
       <c r="E32" t="n">
-        <v>1236.366447923488</v>
+        <v>494.7497601878738</v>
       </c>
       <c r="F32" t="n">
-        <v>826.5264762094448</v>
+        <v>84.90978847383099</v>
       </c>
       <c r="G32" t="n">
-        <v>416.686504495402</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941458</v>
@@ -6715,37 +6715,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y32" t="n">
-        <v>1622.966287987609</v>
+        <v>1249.50052972653</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>111.7947023326189</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
@@ -6782,49 +6782,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M33" t="n">
-        <v>713.1883759714254</v>
+        <v>826.283684688209</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609043</v>
+        <v>1170.804340325827</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894784</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>709.8087082577356</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>455.571351529534</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>247.7198513240011</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.7947023326189</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1401.339622460485</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1622.96628798761</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="C35" t="n">
-        <v>1622.96628798761</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="D35" t="n">
-        <v>1622.96628798761</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="E35" t="n">
-        <v>1378.603698709343</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="F35" t="n">
-        <v>968.7637269953007</v>
+        <v>600.2430646785226</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941458</v>
@@ -6952,37 +6952,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y35" t="n">
-        <v>1622.96628798761</v>
+        <v>1010.083036392565</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>944.9608164894786</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>327.9282933941185</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
@@ -7019,49 +7019,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L36" t="n">
-        <v>262.4224316281013</v>
+        <v>455.5486407992528</v>
       </c>
       <c r="M36" t="n">
-        <v>661.8405682323644</v>
+        <v>777.654182139349</v>
       </c>
       <c r="N36" t="n">
-        <v>1063.524724509298</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O36" t="n">
-        <v>1312.27813859326</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286847</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894786</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V36" t="n">
-        <v>944.9608164894786</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="W36" t="n">
-        <v>944.9608164894786</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="X36" t="n">
-        <v>944.9608164894786</v>
+        <v>870.3624519885439</v>
       </c>
       <c r="Y36" t="n">
-        <v>944.9608164894786</v>
+        <v>662.60215322359</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.96628798761</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.96628798761</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.96628798761</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1622.96628798761</v>
+        <v>738.230242413013</v>
       </c>
       <c r="C38" t="n">
-        <v>1523.161648391639</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.895949784888</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1076971866441</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F38" t="n">
         <v>369.2677254726013</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7204,22 +7204,22 @@
         <v>1622.96628798761</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.96628798761</v>
+        <v>1090.998897683127</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.96628798761</v>
+        <v>738.230242413013</v>
       </c>
       <c r="X38" t="n">
-        <v>1622.96628798761</v>
+        <v>738.230242413013</v>
       </c>
       <c r="Y38" t="n">
-        <v>1622.96628798761</v>
+        <v>738.230242413013</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C39" t="n">
         <v>32.45932575975219</v>
@@ -7253,19 +7253,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384406</v>
       </c>
       <c r="K39" t="n">
-        <v>127.9142819632079</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L39" t="n">
-        <v>357.877387831557</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>678.2127073612588</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>1022.733362998877</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O39" t="n">
         <v>1271.486777082839</v>
@@ -7277,28 +7277,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894786</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577358</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W39" t="n">
-        <v>582.8879908259012</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X39" t="n">
-        <v>582.8879908259012</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.1276920609473</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1441.31782315737</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144412</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144412</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144412</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="X40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1622.96628798761</v>
+        <v>327.2623668400557</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1555.315765619201</v>
+        <v>852.139269187838</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.35324867879</v>
+        <v>852.139269187838</v>
       </c>
       <c r="D41" t="n">
-        <v>828.0875500720392</v>
+        <v>852.139269187838</v>
       </c>
       <c r="E41" t="n">
+        <v>852.139269187838</v>
+      </c>
+      <c r="F41" t="n">
         <v>442.299297473795</v>
-      </c>
-      <c r="F41" t="n">
-        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521499</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7429,34 +7429,34 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q41" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.65812576197</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.65812576197</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.65812576197</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.65812576197</v>
       </c>
       <c r="X41" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.65812576197</v>
       </c>
       <c r="Y41" t="n">
-        <v>1622.96628798761</v>
+        <v>852.139269187838</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>661.618777680701</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
-        <v>487.165748399574</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D42" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E42" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
         <v>32.45932575975219</v>
@@ -7490,52 +7490,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384406</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270844</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>718.0539105486922</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082808</v>
+        <v>1062.57456618631</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1311.327980270273</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286847</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T42" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U42" t="n">
-        <v>1374.066492846507</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.066492846507</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W42" t="n">
-        <v>1245.445913671256</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.594413465723</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y42" t="n">
-        <v>829.8341147007691</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="43">
@@ -7593,16 +7593,16 @@
         <v>361.2466016029502</v>
       </c>
       <c r="R43" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T43" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228378</v>
       </c>
       <c r="U43" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228378</v>
       </c>
       <c r="V43" t="n">
         <v>32.45932575975219</v>
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>846.2271159476761</v>
+        <v>852.139269187838</v>
       </c>
       <c r="C44" t="n">
-        <v>846.2271159476761</v>
+        <v>852.139269187838</v>
       </c>
       <c r="D44" t="n">
-        <v>487.9614173409256</v>
+        <v>852.139269187838</v>
       </c>
       <c r="E44" t="n">
-        <v>487.9614173409256</v>
+        <v>852.139269187838</v>
       </c>
       <c r="F44" t="n">
-        <v>487.9614173409256</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G44" t="n">
-        <v>78.12144562688275</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
-        <v>78.12144562688275</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K44" t="n">
         <v>247.358046901132</v>
@@ -7666,7 +7666,7 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.96628798761</v>
@@ -7693,7 +7693,7 @@
         <v>1622.96628798761</v>
       </c>
       <c r="Y44" t="n">
-        <v>1232.826956011798</v>
+        <v>1238.73910925196</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>512.6843680194497</v>
+        <v>288.8593477001502</v>
       </c>
       <c r="C45" t="n">
-        <v>338.2313387383227</v>
+        <v>288.8593477001502</v>
       </c>
       <c r="D45" t="n">
-        <v>338.2313387383227</v>
+        <v>288.8593477001502</v>
       </c>
       <c r="E45" t="n">
-        <v>178.9938837328672</v>
+        <v>129.6218926946947</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975219</v>
+        <v>129.6218926946947</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975219</v>
@@ -7730,19 +7730,19 @@
         <v>61.20822116384406</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384406</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L45" t="n">
-        <v>291.1713270321932</v>
+        <v>498.8504879318551</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321102</v>
+        <v>898.2686245361181</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609044</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P45" t="n">
         <v>1622.96628798761</v>
@@ -7751,28 +7751,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>1350.748860738206</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="W45" t="n">
-        <v>1096.511504010005</v>
+        <v>704.4711466706369</v>
       </c>
       <c r="X45" t="n">
-        <v>888.6600038044717</v>
+        <v>496.6196464651041</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8997050395178</v>
+        <v>288.8593477001502</v>
       </c>
     </row>
     <row r="46">
@@ -7830,16 +7830,16 @@
         <v>361.2466016029502</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029502</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U46" t="n">
-        <v>72.05002336285378</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V46" t="n">
         <v>32.45932575975219</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>214.2977947648816</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>301.876060181096</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>67.58604940343854</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>257.2437463846582</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>67.58604940343852</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>67.58604940343852</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>183.351774170522</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>63.84875129258619</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026371</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>225.58746651042</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026371</v>
+        <v>228.2563757694029</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831318</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>70.09636795461608</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>139.8330319020841</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>72.27200351490173</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>153.4138325635206</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>60.81191981453924</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
@@ -23463,10 +23463,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>59.32005692394495</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G14" t="n">
         <v>8.971932133631526</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8204206985071</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>175.0328601376156</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>55.90072677574319</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>158.6634977530993</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,10 +23673,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>1.834535155252127</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23712,10 +23712,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>213.161238575653</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>83.91194404987868</v>
+        <v>42.86374839669963</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,16 +23819,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>117.8613406673881</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>159.8071632171268</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>35.6960717132398</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23946,13 +23946,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>127.6806501870892</v>
       </c>
       <c r="H20" t="n">
-        <v>210.245503520494</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24028,7 +24028,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>22.83396066159764</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>20.28674440762376</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24183,13 +24183,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>311.3042502356935</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>369.4958051787038</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24256,10 +24256,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>39.36390413282496</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>157.1829709030863</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>180.4339941236784</v>
       </c>
       <c r="X25" t="n">
-        <v>186.7332506408623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>222.0619435470084</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G26" t="n">
-        <v>249.4626511734428</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>80.63238389530721</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>38.24156788032703</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24654,7 +24654,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>186.7332506408622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>38.39691284932769</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>40.39467300703424</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>41.84735697965402</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24779,7 +24779,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>18.43228645917978</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>127.3008210000413</v>
       </c>
       <c r="I31" t="n">
-        <v>108.3071674310103</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>74.67247646141475</v>
@@ -24894,7 +24894,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631583</v>
+        <v>362.7875460435959</v>
       </c>
       <c r="H32" t="n">
-        <v>140.8148782779972</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25016,7 +25016,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>84.69968995873758</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>71.11679827583598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>120.7272614763988</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0114066867783</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631526</v>
+        <v>186.0479183166718</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>7.914561407006346</v>
       </c>
       <c r="C36" t="n">
-        <v>44.25227630748111</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>2.104484466239654</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>140.8555754337624</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>266.4662985709966</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25444,16 +25444,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>21.62102249173716</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>78.52437462028919</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>126.0434729034033</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>21.57939819579914</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>131.7646687215919</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>315.7598245187564</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>1.134473744809043</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>152.0842706476633</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.69968995873745</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>124.3606097774208</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>64.02970078434427</v>
       </c>
       <c r="R43" t="n">
-        <v>59.32005692394483</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>153.4545059283732</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25870,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G44" t="n">
         <v>8.971932133631526</v>
@@ -25885,7 +25885,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5539708421107</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>5.853031707760238</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>40.8373082428284</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>43.88891867079141</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>64.02970078434427</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>59.32005692394483</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>212.9428526967574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459302.1286889043</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459302.1286889043</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>459302.1286889039</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>459302.128688904</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>459302.128688904</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>459302.128688904</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>459302.1286889042</v>
+        <v>459302.1286889045</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>459302.1286889042</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>459302.1286889043</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>459302.1286889045</v>
+        <v>459302.1286889043</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459302.1286889043</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459302.1286889042</v>
+        <v>459302.1286889043</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="E2" t="n">
-        <v>288399.0110372188</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="F2" t="n">
         <v>288399.0110372189</v>
@@ -26331,16 +26331,16 @@
         <v>288399.0110372189</v>
       </c>
       <c r="H2" t="n">
+        <v>288399.0110372189</v>
+      </c>
+      <c r="I2" t="n">
         <v>288399.011037219</v>
       </c>
-      <c r="I2" t="n">
-        <v>288399.0110372191</v>
-      </c>
       <c r="J2" t="n">
+        <v>288399.011037219</v>
+      </c>
+      <c r="K2" t="n">
         <v>288399.0110372189</v>
-      </c>
-      <c r="K2" t="n">
-        <v>288399.0110372191</v>
       </c>
       <c r="L2" t="n">
         <v>288399.0110372189</v>
@@ -26352,10 +26352,10 @@
         <v>288399.0110372189</v>
       </c>
       <c r="O2" t="n">
+        <v>288399.0110372189</v>
+      </c>
+      <c r="P2" t="n">
         <v>288399.011037219</v>
-      </c>
-      <c r="P2" t="n">
-        <v>288399.0110372189</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>305.9587030485383</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="F4" t="n">
-        <v>305.9587030485383</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="G4" t="n">
         <v>305.9587030485384</v>
@@ -26441,7 +26441,7 @@
         <v>305.9587030485384</v>
       </c>
       <c r="J4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="K4" t="n">
         <v>305.9587030485384</v>
@@ -26481,10 +26481,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="G5" t="n">
         <v>27864.35291375758</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375757</v>
@@ -26493,16 +26493,16 @@
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="K5" t="n">
         <v>27864.35291375758</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>27864.35291375758</v>
+      </c>
+      <c r="M5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="L5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="M5" t="n">
-        <v>27864.35291375758</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375758</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146027.4342309184</v>
+        <v>146027.4342309185</v>
       </c>
       <c r="C6" t="n">
-        <v>226796.8657624663</v>
+        <v>226796.8657624661</v>
       </c>
       <c r="D6" t="n">
-        <v>226796.8657624661</v>
+        <v>226796.8657624664</v>
       </c>
       <c r="E6" t="n">
-        <v>93288.52929516594</v>
+        <v>83443.92990178923</v>
       </c>
       <c r="F6" t="n">
-        <v>260228.6994204127</v>
+        <v>250384.100027036</v>
       </c>
       <c r="G6" t="n">
-        <v>260228.6994204128</v>
+        <v>250384.100027036</v>
       </c>
       <c r="H6" t="n">
-        <v>260228.6994204129</v>
+        <v>250384.100027036</v>
       </c>
       <c r="I6" t="n">
-        <v>260228.6994204131</v>
+        <v>250384.1000270361</v>
       </c>
       <c r="J6" t="n">
-        <v>197168.7568213065</v>
+        <v>187324.1574279299</v>
       </c>
       <c r="K6" t="n">
-        <v>260228.699420413</v>
+        <v>250384.100027036</v>
       </c>
       <c r="L6" t="n">
-        <v>260228.6994204128</v>
+        <v>250384.100027036</v>
       </c>
       <c r="M6" t="n">
-        <v>219178.0015579649</v>
+        <v>209333.4021645882</v>
       </c>
       <c r="N6" t="n">
-        <v>260228.6994204127</v>
+        <v>250384.100027036</v>
       </c>
       <c r="O6" t="n">
-        <v>260228.6994204129</v>
+        <v>250384.100027036</v>
       </c>
       <c r="P6" t="n">
-        <v>260228.6994204128</v>
+        <v>250384.1000270362</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
+        <v>146.571804419537</v>
+      </c>
+      <c r="G3" t="n">
         <v>146.5718044195371</v>
-      </c>
-      <c r="G3" t="n">
-        <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
         <v>146.5718044195371</v>
@@ -26804,7 +26804,7 @@
         <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H4" t="n">
         <v>405.7415719969023</v>
@@ -26813,16 +26813,16 @@
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="K4" t="n">
         <v>405.7415719969024</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="M4" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="L4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="M4" t="n">
-        <v>405.7415719969024</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969024</v>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>182.4696517789847</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10.31505646155395</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>70.48954783779371</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>31.72320472427103</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>336.3855457443943</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>174.8594487954078</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>59.57769427051963</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.3933356895449</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>181.40617179047</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>363.7840648101837</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>161.0353883392329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,28 +27934,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>85.27459285014999</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>52.51198830572172</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27997,10 +27997,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -31846,22 +31846,22 @@
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.52492196716872</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
         <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438474</v>
@@ -32013,16 +32013,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
@@ -32031,7 +32031,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427704</v>
@@ -32080,37 +32080,37 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>57.74090973668217</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.714254265819505</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,40 +32150,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438474</v>
@@ -32250,16 +32250,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
@@ -32268,7 +32268,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>42.84432820164855</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M18" t="n">
-        <v>14.91923304404526</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,40 +32387,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O19" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R19" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32554,25 +32554,25 @@
         <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>41.20199547436027</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
@@ -32791,19 +32791,19 @@
         <v>29.78587961321933</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409525</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253947</v>
+        <v>2.714254265819392</v>
       </c>
       <c r="M24" t="n">
         <v>79.8816334086477</v>
       </c>
       <c r="N24" t="n">
-        <v>52.98080390809656</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -33025,28 +33025,28 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409525</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>31.6870751903719</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>57.74090973668217</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>29.9976441780554</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R27" t="n">
         <v>19.57424965436762</v>
@@ -33265,13 +33265,13 @@
         <v>29.78587961321933</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409525</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>60.38869664009246</v>
+        <v>10.03898922530499</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33280,7 +33280,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33499,28 +33499,28 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L33" t="n">
         <v>68.45318092253947</v>
       </c>
       <c r="M33" t="n">
-        <v>63.29492494980639</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100591</v>
+        <v>20.97480400451462</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601704</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436762</v>
@@ -33739,25 +33739,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409525</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M36" t="n">
-        <v>79.8816334086477</v>
+        <v>1.788102838782265</v>
       </c>
       <c r="N36" t="n">
-        <v>57.74090973668217</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>18.99889907094521</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.24363958326611</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436762</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I38" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N38" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T38" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R39" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T39" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U39" t="n">
         <v>0.02074129307823639</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J40" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O40" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T40" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U40" t="n">
         <v>0.01441689879536432</v>
@@ -34131,7 +34131,7 @@
         <v>22.716420059836</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629212</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K41" t="n">
         <v>74.95269614645909</v>
@@ -34210,28 +34210,28 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321934</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409527</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>79.88163340864773</v>
+        <v>10.03898922530476</v>
       </c>
       <c r="N42" t="n">
-        <v>57.74090973668217</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100594</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>60.20229453601706</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326612</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436763</v>
@@ -34389,7 +34389,7 @@
         <v>84.73249724737674</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.6305766613479</v>
+        <v>63.63057666134769</v>
       </c>
       <c r="R44" t="n">
         <v>37.01343159545226</v>
@@ -34453,10 +34453,10 @@
         <v>50.90881248409527</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M45" t="n">
-        <v>44.96790784870234</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N45" t="n">
         <v>57.74090973668217</v>
@@ -34468,7 +34468,7 @@
         <v>60.20229453601706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R45" t="n">
         <v>19.57424965436763</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>375.0959517951503</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>82.95608268154828</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726433</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>253.9803290981046</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>228.1039473027828</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
         <v>66.88568574354744</v>
@@ -35819,10 +35819,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726433</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>169.4681262398682</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>338.4902628720268</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L19" t="n">
         <v>66.88568574354744</v>
@@ -36056,10 +36056,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>170.3111198943945</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>364.7730253023419</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>235.0002197894044</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>400.9814661683168</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>263.9730407139569</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969024</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>281.2637190103405</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>383.9597264680741</v>
+        <v>333.6100190532866</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
@@ -36928,10 +36928,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>386.865954777788</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>326.276269873291</v>
+        <v>272.2408788367997</v>
       </c>
       <c r="P33" t="n">
-        <v>244.690655761624</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366293</v>
+        <v>325.3591326667639</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969024</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>203.4872602965521</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L38" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N38" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P38" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K39" t="n">
-        <v>96.41914768025828</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
         <v>244.690655761624</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.0611576216796</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696148</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>87.03308673054579</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366293</v>
+        <v>333.6100190532864</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969024</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680288</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>29.03928828696148</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>141.3237492791392</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M45" t="n">
-        <v>368.5389376766839</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969024</v>
@@ -38113,7 +38113,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1798530.02169609</v>
+        <v>1848422.798347089</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>378361.3354307516</v>
+        <v>321478.4337613506</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6532702.14873174</v>
+        <v>6532702.148731738</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -724,7 +724,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>18.29749587628863</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>87.86737129411912</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>200.1028155306157</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>43.09198093152767</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>36.88464454569336</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>317.969209297079</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>263.3439477611045</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>6.270019292236308</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>56.66198483475257</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
@@ -1508,13 +1508,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>76.26565409945277</v>
+        <v>120.1174680519563</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>81.12752273267826</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>29.96704369376007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>73.36175976093796</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>322.4091433743079</v>
+        <v>56.06257007945342</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>39.78373978801282</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>28.29511822098077</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -1982,13 +1982,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>287.0328539434448</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>83.85219763151034</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2216,16 +2216,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>185.4862407958537</v>
+        <v>93.67720363768595</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>104.4426810938097</v>
       </c>
       <c r="F23" t="n">
-        <v>37.38024056300767</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>66.12262390886337</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>8.644241788329454</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6718981164722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>38.92321710192636</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>85.90079975456013</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267807</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>38.97640474817497</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>30.15743961067284</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>147.3647965035357</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>180.4616923463819</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>69.98753797299388</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.0654404381968</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.57639700375392</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>51.925958086938</v>
+        <v>17.95817021688012</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>114.1942888468241</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>35.62667716771375</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>99.78974769572881</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969023</v>
+        <v>53.96864153531335</v>
       </c>
       <c r="G35" t="n">
-        <v>228.6655858138621</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158.618622242861</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.6674229028286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>175.8455407222772</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>306.1312359783977</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>34.31881265622927</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>147.3962661676074</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>30.44996741998441</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>33.64439241526563</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969024</v>
+        <v>399.888540289142</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.1536680083903</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>147.3962661676071</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>81.1275227326783</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V43" t="n">
-        <v>98.68313739545479</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969024</v>
+        <v>400.6920118803607</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>380.3849069482933</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>96.19094126559305</v>
+        <v>0.5439382344024476</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>106.0890042129127</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>248.9911026845557</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>233.5337920632072</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>233.5337920632072</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4372,10 +4372,10 @@
         <v>255.9366034337592</v>
       </c>
       <c r="X2" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
         <v>72.23626279480629</v>
@@ -4606,13 +4606,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.9119902784999</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4589609973729</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4685,13 +4685,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.1273272985679</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="7">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E8" t="n">
-        <v>90.33569644483418</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.827050448935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>203.827050448935</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>203.827050448935</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>203.827050448935</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>57.29249247582001</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>57.29249247582001</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>57.29249247582001</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>894.6625969973069</v>
@@ -4922,13 +4922,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>619.4388494194218</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>411.587349213889</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.827050448935</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>667.4258303376432</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="C11" t="n">
-        <v>298.4633133972315</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="D11" t="n">
-        <v>298.4633133972315</v>
+        <v>953.1363467744504</v>
       </c>
       <c r="E11" t="n">
-        <v>298.4633133972315</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F11" t="n">
-        <v>298.4633133972315</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G11" t="n">
-        <v>298.4633133972315</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5074,19 +5074,19 @@
         <v>1311.402045381201</v>
       </c>
       <c r="U11" t="n">
-        <v>1057.565162313455</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V11" t="n">
-        <v>1057.565162313455</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W11" t="n">
-        <v>1057.565162313455</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X11" t="n">
-        <v>1057.565162313455</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y11" t="n">
-        <v>667.4258303376432</v>
+        <v>1311.402045381201</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454.8582495513002</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="C12" t="n">
-        <v>454.8582495513002</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D12" t="n">
-        <v>454.8582495513002</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E12" t="n">
-        <v>295.6207945458447</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>149.0862365727296</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>149.0862365727296</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>38.7926785801929</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>466.9286114492849</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M12" t="n">
-        <v>866.3467480535478</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N12" t="n">
         <v>948.4732699082806</v>
@@ -5144,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1565.731959871697</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1398.229724829863</v>
       </c>
       <c r="T12" t="n">
-        <v>1340.665718993834</v>
+        <v>1197.326715935357</v>
       </c>
       <c r="U12" t="n">
-        <v>1112.463051531312</v>
+        <v>969.1240484728348</v>
       </c>
       <c r="V12" t="n">
-        <v>877.3109432995698</v>
+        <v>969.1240484728348</v>
       </c>
       <c r="W12" t="n">
-        <v>623.0735865713682</v>
+        <v>714.8866917446333</v>
       </c>
       <c r="X12" t="n">
-        <v>623.0735865713682</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="Y12" t="n">
-        <v>623.0735865713682</v>
+        <v>507.0351915391004</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.45402245942</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C13" t="n">
-        <v>140.45402245942</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D13" t="n">
-        <v>140.45402245942</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E13" t="n">
-        <v>140.45402245942</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F13" t="n">
-        <v>140.45402245942</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="I13" t="n">
         <v>32.45932575975218</v>
@@ -5238,13 +5238,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.45402245942</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1041.795298996494</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="C14" t="n">
-        <v>1041.795298996494</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.795298996494</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.795298996494</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F14" t="n">
-        <v>631.9553272824515</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214178</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U14" t="n">
-        <v>1431.934630972306</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="V14" t="n">
-        <v>1431.934630972306</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="W14" t="n">
-        <v>1431.934630972306</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="X14" t="n">
-        <v>1431.934630972306</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="Y14" t="n">
-        <v>1041.795298996494</v>
+        <v>1164.895949784888</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>288.8593477001502</v>
+        <v>375.5944693865171</v>
       </c>
       <c r="C15" t="n">
-        <v>114.4063184190232</v>
+        <v>201.1414401053901</v>
       </c>
       <c r="D15" t="n">
-        <v>114.4063184190232</v>
+        <v>201.1414401053901</v>
       </c>
       <c r="E15" t="n">
-        <v>114.4063184190232</v>
+        <v>201.1414401053901</v>
       </c>
       <c r="F15" t="n">
-        <v>114.4063184190232</v>
+        <v>201.1414401053901</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>62.72906686456034</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>62.72906686456034</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>526.7134211229762</v>
       </c>
       <c r="M15" t="n">
-        <v>729.6092173456784</v>
+        <v>847.048740652678</v>
       </c>
       <c r="N15" t="n">
-        <v>1074.129872983297</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O15" t="n">
-        <v>1397.143380157855</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.96628798761</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093103</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V15" t="n">
-        <v>958.7085033988385</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W15" t="n">
-        <v>704.4711466706369</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="X15" t="n">
-        <v>496.6196464651041</v>
+        <v>583.354768151471</v>
       </c>
       <c r="Y15" t="n">
-        <v>288.8593477001502</v>
+        <v>375.5944693865171</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5460,28 +5460,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>716.3908257546925</v>
+        <v>89.08818442586676</v>
       </c>
       <c r="C17" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D17" t="n">
         <v>32.45932575975219</v>
@@ -5518,10 +5518,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M17" t="n">
         <v>838.8947028941458</v>
@@ -5548,19 +5548,19 @@
         <v>1400.222368368377</v>
       </c>
       <c r="U17" t="n">
-        <v>1400.222368368377</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V17" t="n">
-        <v>1069.159481024807</v>
+        <v>815.3225979570608</v>
       </c>
       <c r="W17" t="n">
-        <v>716.3908257546925</v>
+        <v>462.5539426869466</v>
       </c>
       <c r="X17" t="n">
-        <v>716.3908257546925</v>
+        <v>89.08818442586676</v>
       </c>
       <c r="Y17" t="n">
-        <v>716.3908257546925</v>
+        <v>89.08818442586676</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.0979507863467</v>
+        <v>356.5092208900587</v>
       </c>
       <c r="C18" t="n">
-        <v>72.64492150521968</v>
+        <v>356.5092208900587</v>
       </c>
       <c r="D18" t="n">
-        <v>72.64492150521968</v>
+        <v>207.5748112288074</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975219</v>
+        <v>207.5748112288074</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.04025325569236</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.04025325569236</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975219</v>
@@ -5594,22 +5594,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>228.9816661413135</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>526.7134211229767</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>847.0487406526785</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.569396290296</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1440.322810374259</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
         <v>1622.96628798761</v>
@@ -5618,28 +5618,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S18" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1340.665718993835</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U18" t="n">
-        <v>1112.463051531313</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>877.3109432995702</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W18" t="n">
-        <v>623.0735865713687</v>
+        <v>772.1210198605454</v>
       </c>
       <c r="X18" t="n">
-        <v>623.0735865713687</v>
+        <v>564.2695196550126</v>
       </c>
       <c r="Y18" t="n">
-        <v>415.3132878064147</v>
+        <v>356.5092208900587</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5700,16 +5700,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U19" t="n">
-        <v>287.1438139656391</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
         <v>32.45932575975219</v>
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>732.2314731742442</v>
+        <v>117.1585152865303</v>
       </c>
       <c r="C20" t="n">
-        <v>732.2314731742442</v>
+        <v>117.1585152865303</v>
       </c>
       <c r="D20" t="n">
-        <v>732.2314731742442</v>
+        <v>117.1585152865303</v>
       </c>
       <c r="E20" t="n">
-        <v>732.2314731742442</v>
+        <v>117.1585152865303</v>
       </c>
       <c r="F20" t="n">
-        <v>322.3915014602014</v>
+        <v>117.1585152865303</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>117.1585152865303</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U20" t="n">
-        <v>1508.970645214178</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V20" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W20" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="X20" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="Y20" t="n">
-        <v>1118.831313238366</v>
+        <v>503.7583553506521</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>181.3937354210034</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C21" t="n">
-        <v>181.3937354210034</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975219</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5657812216814</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L21" t="n">
-        <v>416.5288870900306</v>
+        <v>455.5486407992528</v>
       </c>
       <c r="M21" t="n">
-        <v>777.654182139349</v>
+        <v>775.8839603289546</v>
       </c>
       <c r="N21" t="n">
         <v>1122.174837776967</v>
@@ -5855,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1026.358376588747</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V21" t="n">
-        <v>791.2062683570041</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W21" t="n">
-        <v>536.9689116288025</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X21" t="n">
-        <v>349.6090724410715</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="Y21" t="n">
-        <v>349.6090724410715</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5940,22 +5940,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1202.653768535401</v>
+        <v>547.7969551443098</v>
       </c>
       <c r="C23" t="n">
-        <v>1202.653768535401</v>
+        <v>547.7969551443098</v>
       </c>
       <c r="D23" t="n">
-        <v>1202.653768535401</v>
+        <v>547.7969551443098</v>
       </c>
       <c r="E23" t="n">
-        <v>816.8655159371569</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011319</v>
@@ -6007,34 +6007,34 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U23" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V23" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W23" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X23" t="n">
-        <v>1202.653768535401</v>
+        <v>937.9362871201215</v>
       </c>
       <c r="Y23" t="n">
-        <v>1202.653768535401</v>
+        <v>547.7969551443098</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>366.1498100463347</v>
+        <v>643.4247538283571</v>
       </c>
       <c r="C24" t="n">
-        <v>191.6967807652077</v>
+        <v>643.4247538283571</v>
       </c>
       <c r="D24" t="n">
-        <v>191.6967807652077</v>
+        <v>494.4903441671058</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>494.4903441671058</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>347.9557861939908</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>209.543412953161</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>99.24985496062428</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>157.8168858175896</v>
+        <v>228.1292889633052</v>
       </c>
       <c r="L24" t="n">
-        <v>390.4671034090999</v>
+        <v>525.8610439449684</v>
       </c>
       <c r="M24" t="n">
-        <v>789.8852400133629</v>
+        <v>846.1963634746702</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.569396290296</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O24" t="n">
-        <v>1440.322810374259</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1614.23473062566</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1413.331721731154</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U24" t="n">
-        <v>1185.129054268632</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V24" t="n">
-        <v>949.9769460368893</v>
+        <v>1105.513610762092</v>
       </c>
       <c r="W24" t="n">
-        <v>949.9769460368893</v>
+        <v>851.2762540338899</v>
       </c>
       <c r="X24" t="n">
-        <v>742.1254458313565</v>
+        <v>643.4247538283571</v>
       </c>
       <c r="Y24" t="n">
-        <v>534.3651470664026</v>
+        <v>643.4247538283571</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6180,19 +6180,19 @@
         <v>139.6199360758255</v>
       </c>
       <c r="U25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V25" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1237.927521786082</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C26" t="n">
-        <v>1237.927521786082</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D26" t="n">
-        <v>1237.927521786082</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E26" t="n">
-        <v>852.1392691878377</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F26" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975219</v>
@@ -6226,16 +6226,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6256,22 +6256,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y26" t="n">
-        <v>1400.222368368377</v>
+        <v>1583.649907076573</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>181.3937354210034</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C27" t="n">
-        <v>181.3937354210034</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D27" t="n">
         <v>32.45932575975219</v>
@@ -6314,43 +6314,43 @@
         <v>387.7799916859387</v>
       </c>
       <c r="M27" t="n">
-        <v>708.1153112156405</v>
+        <v>787.1981282902018</v>
       </c>
       <c r="N27" t="n">
-        <v>1052.635966853259</v>
+        <v>1188.882284567135</v>
       </c>
       <c r="O27" t="n">
-        <v>1331.087048673496</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U27" t="n">
-        <v>1173.163483952</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V27" t="n">
-        <v>938.0113757202575</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W27" t="n">
-        <v>683.774018992056</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X27" t="n">
-        <v>475.9225187865231</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y27" t="n">
-        <v>268.1622200215692</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="28">
@@ -6387,7 +6387,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6414,13 +6414,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>321.8764957967128</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U28" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V28" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W28" t="n">
         <v>32.45932575975219</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1286.226725594946</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="C29" t="n">
-        <v>1286.226725594946</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="D29" t="n">
-        <v>927.9610269881953</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="E29" t="n">
-        <v>927.9610269881953</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>927.9610269881953</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
-        <v>518.1210552741525</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>181.3126555613034</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6484,31 +6484,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1286.226725594946</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1286.226725594946</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1286.226725594946</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1286.226725594946</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X29" t="n">
-        <v>1286.226725594946</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y29" t="n">
-        <v>1286.226725594946</v>
+        <v>859.3611977507176</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>740.9541542535677</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975219</v>
+        <v>566.5011249724407</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975219</v>
+        <v>417.5667153111894</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975219</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
         <v>157.8168858175896</v>
@@ -6551,43 +6551,43 @@
         <v>387.7799916859387</v>
       </c>
       <c r="M30" t="n">
-        <v>718.0539105486924</v>
+        <v>787.1981282902018</v>
       </c>
       <c r="N30" t="n">
-        <v>1062.57456618631</v>
+        <v>1188.882284567135</v>
       </c>
       <c r="O30" t="n">
-        <v>1311.327980270273</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P30" t="n">
-        <v>1553.57172947428</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
         <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1273.179515222157</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
-        <v>1044.976847759636</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V30" t="n">
-        <v>1044.976847759636</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W30" t="n">
-        <v>790.739491031434</v>
+        <v>948.7144530185217</v>
       </c>
       <c r="X30" t="n">
-        <v>582.8879908259012</v>
+        <v>948.7144530185217</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.1276920609473</v>
+        <v>740.9541542535677</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C31" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D31" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G31" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1249.50052972653</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C32" t="n">
-        <v>880.5380127861181</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D32" t="n">
-        <v>880.5380127861181</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E32" t="n">
-        <v>494.7497601878738</v>
+        <v>460.4388633494314</v>
       </c>
       <c r="F32" t="n">
-        <v>84.90978847383099</v>
+        <v>50.59889163538867</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1249.50052972653</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.50052972653</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>227.3557567412979</v>
       </c>
       <c r="L33" t="n">
-        <v>505.9483651585071</v>
+        <v>457.318862609647</v>
       </c>
       <c r="M33" t="n">
-        <v>826.283684688209</v>
+        <v>777.6541821393488</v>
       </c>
       <c r="N33" t="n">
-        <v>1170.804340325827</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O33" t="n">
-        <v>1440.322810374259</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.96628798761</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
         <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>983.4223932258753</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6885,25 +6885,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W34" t="n">
-        <v>260.4488766577695</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1010.083036392565</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="C35" t="n">
-        <v>1010.083036392565</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="D35" t="n">
-        <v>1010.083036392565</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="E35" t="n">
-        <v>1010.083036392565</v>
+        <v>86.97310508835153</v>
       </c>
       <c r="F35" t="n">
-        <v>600.2430646785226</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6967,22 +6967,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>1400.222368368377</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y35" t="n">
-        <v>1010.083036392565</v>
+        <v>859.3611977507176</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>502.3813226752455</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
-        <v>327.9282933941185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D36" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>157.8168858175896</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L36" t="n">
-        <v>455.5486407992528</v>
+        <v>457.318862609647</v>
       </c>
       <c r="M36" t="n">
-        <v>777.654182139349</v>
+        <v>777.6541821393488</v>
       </c>
       <c r="N36" t="n">
         <v>1122.174837776967</v>
@@ -7040,28 +7040,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.568727888341</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T36" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U36" t="n">
-        <v>1313.366060425819</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>1078.213952194077</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>1078.213952194077</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>870.3624519885439</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>662.60215322359</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7128,19 +7128,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W37" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>738.230242413013</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="C38" t="n">
-        <v>369.2677254726013</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="D38" t="n">
-        <v>369.2677254726013</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="E38" t="n">
-        <v>369.2677254726013</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="F38" t="n">
-        <v>369.2677254726013</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1445.344529682279</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1222.600610063047</v>
       </c>
       <c r="U38" t="n">
-        <v>1400.222368368377</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="V38" t="n">
-        <v>1090.998897683127</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="W38" t="n">
-        <v>738.230242413013</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="X38" t="n">
-        <v>738.230242413013</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="Y38" t="n">
-        <v>738.230242413013</v>
+        <v>968.7637269953007</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.45932575975219</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E39" t="n">
         <v>32.45932575975219</v>
@@ -7253,52 +7253,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384406</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809358</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L39" t="n">
-        <v>534.697260562599</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668621</v>
+        <v>736.8642066197324</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082808</v>
+        <v>1082.333634589533</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1331.087048673496</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1588.300820658085</v>
       </c>
       <c r="T39" t="n">
-        <v>1254.561044051269</v>
+        <v>1588.300820658085</v>
       </c>
       <c r="U39" t="n">
-        <v>1105.675926710251</v>
+        <v>1588.300820658085</v>
       </c>
       <c r="V39" t="n">
-        <v>870.5238184785085</v>
+        <v>1353.148712426342</v>
       </c>
       <c r="W39" t="n">
-        <v>616.2864617503069</v>
+        <v>1098.911355698141</v>
       </c>
       <c r="X39" t="n">
-        <v>408.4349615447741</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="Y39" t="n">
-        <v>200.6746627798202</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D40" t="n">
-        <v>327.2623668400557</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E40" t="n">
-        <v>179.3492732576626</v>
+        <v>63.21686860822129</v>
       </c>
       <c r="F40" t="n">
         <v>32.45932575975219</v>
@@ -7335,49 +7335,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191287</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280249</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.2357570984441</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>270.968751228571</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710738</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y40" t="n">
-        <v>327.2623668400557</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.139269187838</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C41" t="n">
-        <v>852.139269187838</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D41" t="n">
-        <v>852.139269187838</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="E41" t="n">
-        <v>852.139269187838</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="F41" t="n">
-        <v>442.299297473795</v>
+        <v>436.3871442336331</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7411,7 +7411,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521511</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
         <v>247.358046901132</v>
@@ -7420,43 +7420,43 @@
         <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.65812576197</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1088.65812576197</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1088.65812576197</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1088.65812576197</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>1088.65812576197</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>852.139269187838</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.9123550408792</v>
+        <v>181.3444431007695</v>
       </c>
       <c r="C42" t="n">
         <v>32.45932575975219</v>
@@ -7499,43 +7499,43 @@
         <v>387.7799916859387</v>
       </c>
       <c r="M42" t="n">
-        <v>718.0539105486922</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N42" t="n">
-        <v>1062.57456618631</v>
+        <v>1052.635966853259</v>
       </c>
       <c r="O42" t="n">
-        <v>1311.327980270273</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P42" t="n">
         <v>1553.57172947428</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U42" t="n">
-        <v>1111.91361897131</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V42" t="n">
-        <v>876.7615107395675</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W42" t="n">
-        <v>622.5241540113659</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="X42" t="n">
-        <v>414.6726538058331</v>
+        <v>557.3200788857914</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.9123550408792</v>
+        <v>349.5597801208375</v>
       </c>
     </row>
     <row r="43">
@@ -7572,40 +7572,40 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191287</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280249</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>187.2357570984441</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>270.968751228571</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710738</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1392625228378</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>132.1392625228378</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V43" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W43" t="n">
         <v>32.45932575975219</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.139269187838</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="C44" t="n">
-        <v>852.139269187838</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="D44" t="n">
-        <v>852.139269187838</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="E44" t="n">
-        <v>852.139269187838</v>
+        <v>847.0387034135533</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>437.1987316995105</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975219</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521511</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7669,31 +7669,31 @@
         <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>1238.73910925196</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>288.8593477001502</v>
+        <v>207.4617876008817</v>
       </c>
       <c r="C45" t="n">
-        <v>288.8593477001502</v>
+        <v>33.00875831975466</v>
       </c>
       <c r="D45" t="n">
-        <v>288.8593477001502</v>
+        <v>33.00875831975466</v>
       </c>
       <c r="E45" t="n">
-        <v>129.6218926946947</v>
+        <v>33.00875831975466</v>
       </c>
       <c r="F45" t="n">
-        <v>129.6218926946947</v>
+        <v>33.00875831975466</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975219</v>
@@ -7727,52 +7727,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384406</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>201.1187329501918</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L45" t="n">
-        <v>498.8504879318551</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M45" t="n">
-        <v>898.2686245361181</v>
+        <v>736.8642066197324</v>
       </c>
       <c r="N45" t="n">
-        <v>1299.952780813052</v>
+        <v>1081.384862257351</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.96628798761</v>
+        <v>1330.138276341313</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.96628798761</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093103</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U45" t="n">
-        <v>1193.860611630581</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V45" t="n">
-        <v>958.7085033988385</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W45" t="n">
-        <v>704.4711466706369</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X45" t="n">
-        <v>496.6196464651041</v>
+        <v>415.2220863658356</v>
       </c>
       <c r="Y45" t="n">
-        <v>288.8593477001502</v>
+        <v>207.4617876008817</v>
       </c>
     </row>
     <row r="46">
@@ -7809,40 +7809,40 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K46" t="n">
-        <v>40.81344334191287</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L46" t="n">
-        <v>107.0302722280249</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M46" t="n">
-        <v>187.2357570984441</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N46" t="n">
-        <v>270.968751228571</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O46" t="n">
-        <v>332.2934283710738</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P46" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W46" t="n">
         <v>32.45932575975219</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>214.2977947648816</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>301.876060181096</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275541</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258619</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>228.2563757694029</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>73.77211287831318</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>63.9611607751828</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>70.09636795461608</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>72.27200351490173</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.92159966352294</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.81191981453924</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>108.5255533099058</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631526</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>175.0328601376156</v>
+        <v>131.1810461851121</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>55.90072677574319</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>48.57497911337796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8162656893113</v>
+        <v>66.72592374140285</v>
       </c>
       <c r="U16" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>213.161238575653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>42.86374839669963</v>
+        <v>309.2103216915542</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>117.8613406673881</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>80.89550419163059</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>180.4339941236784</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>127.6806501870892</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>249.5881180842103</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>20.28674440762376</v>
+        <v>112.0957815657915</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>106.4446432747563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24150,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24180,16 +24180,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>277.4876889784521</v>
       </c>
       <c r="F23" t="n">
-        <v>369.4958051787038</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>12.41939889827466</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>157.1829709030863</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24387,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
         <v>165.4090611368575</v>
@@ -24420,13 +24420,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>180.2156082447829</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>180.4339941236784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>222.0619435470084</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>1.1344737448091</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24496,7 +24496,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>347.3147215541272</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.63238389530721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.69968995873768</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
@@ -24654,16 +24654,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>187.8398609411363</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>351.7729304615889</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>40.39467300703424</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24779,7 +24779,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>18.43228645917978</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>181.7074451879257</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0.766539743740509</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>127.3008210000413</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809043</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
-        <v>362.7875460435959</v>
+        <v>396.7553339136538</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>84.69968995873758</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>216.0683059932059</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>61.63766533429782</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25098,7 +25098,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>186.7332506408622</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.1344737448091</v>
+        <v>352.9074042063981</v>
       </c>
       <c r="G35" t="n">
-        <v>186.0479183166718</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25207,7 +25207,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.914561407006346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25335,7 +25335,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
@@ -25368,13 +25368,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>140.8555754337624</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>19.7473731123693</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>21.62102249173716</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25520,13 +25520,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>131.5084000351865</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>78.52437462028919</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25572,7 +25572,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434427</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>131.7646687215919</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631526</v>
+        <v>14.82496384139188</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.0842706476633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>25.31223282070863</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,13 +25757,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>84.69968995873745</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434427</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25839,16 +25839,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4545059283732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631526</v>
+        <v>14.0214922501732</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.853031707760238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>40.8373082428284</v>
+        <v>136.484311274019</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.02970078434427</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R46" t="n">
-        <v>59.32005692394483</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459302.1286889042</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459302.1286889039</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>459302.1286889042</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>459302.1286889039</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>459302.1286889039</v>
+        <v>459302.128688904</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>459302.1286889039</v>
+        <v>459302.1286889042</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>459302.1286889042</v>
+        <v>459302.128688904</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459302.1286889042</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459302.1286889043</v>
+        <v>459302.1286889039</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
         <v>288399.0110372189</v>
@@ -26337,7 +26337,7 @@
         <v>288399.011037219</v>
       </c>
       <c r="J2" t="n">
-        <v>288399.011037219</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="K2" t="n">
         <v>288399.0110372189</v>
@@ -26349,13 +26349,13 @@
         <v>288399.011037219</v>
       </c>
       <c r="N2" t="n">
-        <v>288399.0110372189</v>
+        <v>288399.011037219</v>
       </c>
       <c r="O2" t="n">
-        <v>288399.0110372189</v>
+        <v>288399.011037219</v>
       </c>
       <c r="P2" t="n">
-        <v>288399.011037219</v>
+        <v>288399.0110372191</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
+        <v>279125.0601321633</v>
+      </c>
+      <c r="D4" t="n">
         <v>279125.0601321634</v>
       </c>
-      <c r="D4" t="n">
-        <v>279125.0601321633</v>
-      </c>
       <c r="E4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="F4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="G4" t="n">
         <v>305.9587030485384</v>
       </c>
       <c r="H4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="I4" t="n">
         <v>305.9587030485384</v>
@@ -26444,7 +26444,7 @@
         <v>305.9587030485383</v>
       </c>
       <c r="K4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="L4" t="n">
         <v>305.9587030485384</v>
@@ -26453,13 +26453,13 @@
         <v>305.9587030485384</v>
       </c>
       <c r="N4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="O4" t="n">
         <v>305.9587030485384</v>
       </c>
       <c r="P4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="G5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="G5" t="n">
-        <v>27864.35291375758</v>
-      </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="N5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="N5" t="n">
-        <v>27864.35291375758</v>
-      </c>
       <c r="O5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="P5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146027.4342309185</v>
+        <v>146027.4342309186</v>
       </c>
       <c r="C6" t="n">
-        <v>226796.8657624661</v>
+        <v>226796.8657624663</v>
       </c>
       <c r="D6" t="n">
-        <v>226796.8657624664</v>
+        <v>226796.8657624662</v>
       </c>
       <c r="E6" t="n">
-        <v>83443.92990178923</v>
+        <v>92304.06935582832</v>
       </c>
       <c r="F6" t="n">
-        <v>250384.100027036</v>
+        <v>259244.2394810751</v>
       </c>
       <c r="G6" t="n">
-        <v>250384.100027036</v>
+        <v>259244.2394810751</v>
       </c>
       <c r="H6" t="n">
-        <v>250384.100027036</v>
+        <v>259244.2394810751</v>
       </c>
       <c r="I6" t="n">
-        <v>250384.1000270361</v>
+        <v>259244.2394810752</v>
       </c>
       <c r="J6" t="n">
-        <v>187324.1574279299</v>
+        <v>196184.2968819689</v>
       </c>
       <c r="K6" t="n">
-        <v>250384.100027036</v>
+        <v>259244.2394810751</v>
       </c>
       <c r="L6" t="n">
-        <v>250384.100027036</v>
+        <v>259244.2394810751</v>
       </c>
       <c r="M6" t="n">
-        <v>209333.4021645882</v>
+        <v>218193.5416186274</v>
       </c>
       <c r="N6" t="n">
-        <v>250384.100027036</v>
+        <v>259244.2394810753</v>
       </c>
       <c r="O6" t="n">
-        <v>250384.100027036</v>
+        <v>259244.2394810752</v>
       </c>
       <c r="P6" t="n">
-        <v>250384.1000270362</v>
+        <v>259244.2394810753</v>
       </c>
     </row>
   </sheetData>
@@ -26752,28 +26752,28 @@
         <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="J3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="K3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="L3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="M3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26801,7 +26801,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969024</v>
@@ -26816,22 +26816,22 @@
         <v>405.7415719969023</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="P4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
     </row>
   </sheetData>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>10.31505646155395</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>169.5702675696171</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>38.23792762219048</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>178.7568658833995</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>336.3855457443943</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>59.57769427051963</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>51.59216763030395</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27864,7 +27864,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>363.7840648101837</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>52.51198830572172</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -31840,19 +31840,19 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
         <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O12" t="n">
         <v>75.0101950410059</v>
@@ -32077,25 +32077,25 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>60.38869664009223</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>40.2436395832661</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438474</v>
@@ -32250,16 +32250,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
@@ -32268,7 +32268,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
-        <v>42.84432820164855</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>57.74090973668217</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,40 +32387,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32487,16 +32487,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32505,7 +32505,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,25 +32545,25 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>41.20199547436027</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.788102838782038</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,13 +32578,13 @@
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,40 +32624,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32724,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32742,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>41.98334115315532</v>
       </c>
       <c r="L24" t="n">
-        <v>2.714254265819392</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.8816334086477</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>57.74090973668211</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M25" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I26" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J26" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K26" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L26" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M26" t="n">
         <v>103.4642265438474</v>
@@ -32961,16 +32961,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O26" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R26" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S26" t="n">
         <v>13.4271557515988</v>
@@ -32979,7 +32979,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,13 +33019,13 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H27" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I27" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J27" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33034,31 +33034,31 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O27" t="n">
-        <v>29.9976441780554</v>
+        <v>2.714254265819278</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R27" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S27" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T27" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,40 +33098,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H28" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I28" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J28" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K28" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L28" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M28" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N28" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O28" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P28" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R28" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S28" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T28" t="n">
         <v>1.129323738970203</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I29" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J29" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K29" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L29" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438474</v>
@@ -33198,16 +33198,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R29" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S29" t="n">
         <v>13.4271557515988</v>
@@ -33216,7 +33216,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,13 +33256,13 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H30" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J30" t="n">
-        <v>29.78587961321933</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33271,16 +33271,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>10.03898922530499</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2.714254265819278</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601704</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33289,13 +33289,13 @@
         <v>19.57424965436762</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,40 +33335,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I31" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L31" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M31" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O31" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R31" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S31" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I32" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J32" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K32" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L32" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438474</v>
@@ -33435,16 +33435,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R32" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S32" t="n">
         <v>13.4271557515988</v>
@@ -33453,7 +33453,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,19 +33493,19 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H33" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J33" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409525</v>
+        <v>41.20199547436002</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253947</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -33514,25 +33514,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>20.97480400451462</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.24363958326611</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,40 +33572,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I34" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L34" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M34" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O34" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R34" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S34" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I35" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L35" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438474</v>
@@ -33672,16 +33672,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R35" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S35" t="n">
         <v>13.4271557515988</v>
@@ -33690,7 +33690,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,22 +33730,22 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H36" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253947</v>
+        <v>41.20199547435999</v>
       </c>
       <c r="M36" t="n">
-        <v>1.788102838782265</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -33763,13 +33763,13 @@
         <v>19.57424965436762</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,40 +33809,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I37" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L37" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M37" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O37" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R37" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S37" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011538</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046569</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629223</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645909</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044667</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N38" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971774</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737674</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.6305766613479</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545226</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
-        <v>13.42715575159881</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T38" t="n">
-        <v>2.579369141091552</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0471386707680923</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3152676547891931</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885102</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321934</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409527</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>68.4531809225395</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864773</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975597</v>
+        <v>0.9583558910939587</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100594</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326612</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
-        <v>19.57424965436763</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422069</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
-        <v>1.270749889259949</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644384</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177523</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323132</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141112</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039459</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172072</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225444</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.13234246735011</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118895</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U40" t="n">
         <v>0.01441689879536432</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011538</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046569</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I41" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629223</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645909</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044667</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N41" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.27919642971774</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737674</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.6305766613479</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545226</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S41" t="n">
-        <v>13.42715575159881</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T41" t="n">
-        <v>2.579369141091552</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0471386707680923</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3152676547891931</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H42" t="n">
-        <v>3.044821823885102</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34219,28 +34219,28 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>10.03898922530476</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>70.24128376132165</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>19.57424965436763</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422069</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T42" t="n">
-        <v>1.270749889259949</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U42" t="n">
         <v>0.02074129307823639</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644384</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I43" t="n">
-        <v>7.948516869177523</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J43" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K43" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L43" t="n">
-        <v>39.29566048323132</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M43" t="n">
-        <v>41.43176432141112</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039459</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O43" t="n">
-        <v>37.35899041172072</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225444</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.13234246735011</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118895</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T43" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U43" t="n">
         <v>0.01441689879536432</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5892333846011538</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H44" t="n">
-        <v>6.034486400046569</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I44" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J44" t="n">
-        <v>50.01044697629223</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K44" t="n">
-        <v>74.95269614645909</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L44" t="n">
-        <v>92.98544734044667</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M44" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N44" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O44" t="n">
-        <v>99.27919642971774</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P44" t="n">
-        <v>84.73249724737674</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.63057666134769</v>
+        <v>63.63057666134746</v>
       </c>
       <c r="R44" t="n">
-        <v>37.01343159545226</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S44" t="n">
-        <v>13.42715575159881</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T44" t="n">
-        <v>2.579369141091552</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0471386707680923</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3152676547891931</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H45" t="n">
-        <v>3.044821823885102</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I45" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J45" t="n">
-        <v>29.78587961321934</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K45" t="n">
-        <v>50.90881248409527</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>68.4531809225395</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>79.88163340864773</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>57.74090973668217</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.01019504100594</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>60.20229453601706</v>
+        <v>41.20199547436007</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.24363958326612</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.57424965436763</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S45" t="n">
-        <v>5.855958412422069</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T45" t="n">
-        <v>1.270749889259949</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U45" t="n">
         <v>0.02074129307823639</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H46" t="n">
-        <v>2.349954503644384</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I46" t="n">
-        <v>7.948516869177523</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J46" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K46" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L46" t="n">
-        <v>39.29566048323132</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M46" t="n">
-        <v>41.43176432141112</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N46" t="n">
-        <v>40.44660957039459</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O46" t="n">
-        <v>37.35899041172072</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P46" t="n">
-        <v>31.96707026225444</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.13234246735011</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R46" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S46" t="n">
-        <v>4.606199165118895</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T46" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U46" t="n">
         <v>0.01441689879536432</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>82.95608268154828</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>292.6746621636772</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>228.1039473027828</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726433</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>169.4681262398682</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
         <v>66.88568574354744</v>
@@ -36056,10 +36056,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>364.7730253023419</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>349.7887650990023</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36293,10 +36293,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>168.6071391913749</v>
       </c>
       <c r="L24" t="n">
-        <v>235.0002197894044</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36530,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K26" t="n">
         <v>179.0082576726433</v>
@@ -36615,7 +36615,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>281.2637190103405</v>
+        <v>253.9803290981044</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L28" t="n">
         <v>66.88568574354744</v>
@@ -36767,10 +36767,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O28" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P28" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726433</v>
@@ -36852,7 +36852,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>333.6100190532866</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>253.9803290981044</v>
       </c>
       <c r="P30" t="n">
-        <v>244.690655761624</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L31" t="n">
         <v>66.88568574354744</v>
@@ -37004,10 +37004,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O31" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P31" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726433</v>
@@ -37089,7 +37089,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>167.8257935125796</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
@@ -37162,13 +37162,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>272.2408788367997</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L34" t="n">
         <v>66.88568574354744</v>
@@ -37241,10 +37241,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O34" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P34" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726433</v>
@@ -37326,7 +37326,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>273.487960997945</v>
       </c>
       <c r="M36" t="n">
-        <v>325.3591326667639</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L37" t="n">
         <v>66.88568574354744</v>
@@ -37478,10 +37478,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O37" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P37" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167971</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L38" t="n">
-        <v>274.8802469209099</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P38" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696148</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223149</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461245</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900885</v>
+        <v>348.9590181513142</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3391532330937</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243112</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354746</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325171</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962319</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714793</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167971</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
-        <v>274.8802469209099</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P41" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>333.6100190532864</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>321.5073585936067</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243112</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L43" t="n">
-        <v>66.88568574354746</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M43" t="n">
-        <v>81.01564128325171</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N43" t="n">
-        <v>84.57878194962319</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714793</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167971</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8802469209099</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680288</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696148</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
-        <v>141.3237492791392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461245</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969024</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>225.690356699967</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.438502608243112</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L46" t="n">
-        <v>66.88568574354746</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M46" t="n">
-        <v>81.01564128325171</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N46" t="n">
-        <v>84.57878194962319</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O46" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P46" t="n">
-        <v>29.24562952714793</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
